--- a/dumps/Stocks/Biocon Ltd.xlsx
+++ b/dumps/Stocks/Biocon Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AD$34</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_A3B8195B_EBEE_4F31_9CC7_6F41C7A6DEBD_.wvu.FilterData">'Trading History'!$A$4:$AO$89</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_A5A1BDFA_5980_4846_96B0_32D9D91CB5B6_.wvu.FilterData">'Trading History'!$A$4:$AO$89</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A3B8195B-EBEE-4F31-9CC7-6F41C7A6DEBD}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A5A1BDFA-5980-4846-96B0-32D9D91CB5B6}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -881,8 +881,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),364.45)</f>
-        <v>364.45</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),376.2)</f>
+        <v>376.2</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="C9" s="5">
         <f>IFERROR(Index!C10/(Index!C8*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="F9" s="5">
         <f>IFERROR(Index!F10/(Index!F8*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="21" t="s">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="L9" s="5">
         <f>IFERROR(Index!L10/(Index!L8*Index!$C$2), 0)</f>
-        <v>0.1131339595</v>
+        <v>0.1096004029</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="C10" s="23">
         <f>SUM('Trading History'!$L$4:$L1004)</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F10" s="23">
         <f>SUM('Trading History'!$P$4:$P1004)</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="21" t="s">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="C12" s="23">
         <f>SUM('Trading History'!$M$4:$M1004)</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="20" t="s">
@@ -1259,7 +1259,7 @@
       </c>
       <c r="F12" s="23">
         <f>SUM('Trading History'!$Q$4:$Q1004)</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="21" t="s">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="L16" s="5">
         <f>IFERROR(Index!L17/(Index!L15*Index!$C$2), 0)</f>
-        <v>0.4162919325</v>
+        <v>0.4032897257</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="L23" s="5">
         <f>IFERROR(Index!L24/(Index!L22*Index!$C$2), 0)</f>
-        <v>0.3888325292</v>
+        <v>0.3766879725</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="L30" s="5">
         <f>IFERROR(Index!L31/(Index!L29*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2277,7 +2277,7 @@
       </c>
       <c r="L37" s="5">
         <f>IFERROR(Index!L38/(Index!L36*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="L44" s="5">
         <f>IFERROR(Index!L45/(Index!L43*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -2859,7 +2859,7 @@
       </c>
       <c r="L51" s="5">
         <f>IFERROR(Index!L52/(Index!L50*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="C57" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="15" t="s">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="F57" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57)), 0)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="16" t="s">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="C58" s="5">
         <f>IFERROR(Index!C59/(Index!C57*Index!$C$2), 0)</f>
-        <v>0</v>
+        <v>0.183728336</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="20" t="s">
@@ -3134,7 +3134,7 @@
       </c>
       <c r="F58" s="5">
         <f>IFERROR(Index!F59/(Index!F57*Index!$C$2), 0)</f>
-        <v>0</v>
+        <v>0.183728336</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="21" t="s">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="L58" s="5">
         <f>IFERROR(Index!L59/(Index!L57*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="C59" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>0</v>
+        <v>1382.372</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="20" t="s">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="F59" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57))</f>
-        <v>0</v>
+        <v>1382.372</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="21" t="s">
@@ -3220,7 +3220,7 @@
       </c>
       <c r="C60" s="23">
         <f>Index!C61-Index!C59</f>
-        <v>0</v>
+        <v>6122</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="20" t="s">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="F60" s="23">
         <f>Index!F61-Index!F59</f>
-        <v>0</v>
+        <v>6122</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="21" t="s">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="C61" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>0</v>
+        <v>7504.372</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="20" t="s">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="F61" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A57))</f>
-        <v>0</v>
+        <v>7504.372</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="21" t="s">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="C64" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="15" t="s">
@@ -3378,7 +3378,7 @@
       </c>
       <c r="F64" s="14">
         <f>IFERROR(SUMIFS('Trading History'!$R$4:$R1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64)), 0)</f>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="16" t="s">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="C65" s="5">
         <f>IFERROR(Index!C66/(Index!C64*Index!$C$2), 0)</f>
-        <v>0.157862807</v>
+        <v>0.1594452685</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="20" t="s">
@@ -3425,7 +3425,7 @@
       </c>
       <c r="F65" s="5">
         <f>IFERROR(Index!F66/(Index!F64*Index!$C$2), 0)</f>
-        <v>0.157862807</v>
+        <v>0.1594452685</v>
       </c>
       <c r="G65" s="8"/>
       <c r="H65" s="21" t="s">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="L65" s="5">
         <f>IFERROR(Index!L66/(Index!L64*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="C66" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>1150.662</v>
+        <v>2399.3324</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="20" t="s">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="F66" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64))</f>
-        <v>1150.662</v>
+        <v>2399.3324</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="21" t="s">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="C67" s="23">
         <f>Index!C68-Index!C66</f>
-        <v>6122</v>
+        <v>12614.6</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="20" t="s">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="F67" s="23">
         <f>Index!F68-Index!F66</f>
-        <v>6122</v>
+        <v>12614.6</v>
       </c>
       <c r="G67" s="8"/>
       <c r="H67" s="21" t="s">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="C68" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>7272.662</v>
+        <v>15013.9324</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="20" t="s">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="F68" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A64))</f>
-        <v>7272.662</v>
+        <v>15013.9324</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="21" t="s">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="C72" s="5">
         <f>IFERROR(Index!C73/(Index!C71*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="20" t="s">
@@ -3716,7 +3716,7 @@
       </c>
       <c r="F72" s="5">
         <f>IFERROR(Index!F73/(Index!F71*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="21" t="s">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="L72" s="5">
         <f>IFERROR(Index!L73/(Index!L71*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
@@ -3755,7 +3755,7 @@
       </c>
       <c r="C73" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="20" t="s">
@@ -3763,7 +3763,7 @@
       </c>
       <c r="F73" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A71))</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="G73" s="8"/>
       <c r="H73" s="21" t="s">
@@ -3849,7 +3849,7 @@
       </c>
       <c r="C75" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="20" t="s">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="F75" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A71))</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="21" t="s">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C79" s="5">
         <f>IFERROR(Index!C80/(Index!C78*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="20" t="s">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="F79" s="5">
         <f>IFERROR(Index!F80/(Index!F78*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="G79" s="8"/>
       <c r="H79" s="21" t="s">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="L79" s="5">
         <f>IFERROR(Index!L80/(Index!L78*Index!$C$2), 0)</f>
-        <v>0.3807056307</v>
+        <v>0.3688149046</v>
       </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -4046,7 +4046,7 @@
       </c>
       <c r="C80" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="20" t="s">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="F80" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A78))</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="21" t="s">
@@ -4140,7 +4140,7 @@
       </c>
       <c r="C82" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="20" t="s">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="F82" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A78))</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="21" t="s">
@@ -4290,7 +4290,7 @@
       </c>
       <c r="C86" s="5">
         <f>IFERROR(Index!C87/(Index!C85*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="20" t="s">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="F86" s="5">
         <f>IFERROR(Index!F87/(Index!F85*Index!$C$2), 0)</f>
-        <v>0.1259006613</v>
+        <v>0.1527644763</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="21" t="s">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="L86" s="5">
         <f>IFERROR(Index!L87/(Index!L85*Index!$C$2), 0)</f>
-        <v>0.3453102132</v>
+        <v>0.3345250058</v>
       </c>
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="C87" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="20" t="s">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F87" s="23">
         <f>SUMIFS('Trading History'!$P$4:$P1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A85))</f>
-        <v>2294.2248</v>
+        <v>2873.4998</v>
       </c>
       <c r="G87" s="8"/>
       <c r="H87" s="21" t="s">
@@ -4431,7 +4431,7 @@
       </c>
       <c r="C89" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="20" t="s">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="F89" s="23">
         <f>SUMIFS('Trading History'!$Q$4:$Q1004, 'Trading History'!$O$4:$O1004, CONCAT("&gt;", $A85))</f>
-        <v>18189.9248</v>
+        <v>18769.1998</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="21" t="s">
@@ -29502,19 +29502,19 @@
       </c>
       <c r="J5" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K5" s="63">
         <f t="shared" ref="K5:K12" si="1">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
-        <v>0.1084408423</v>
+        <v>0.1435035803</v>
       </c>
       <c r="L5" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>358.3124</v>
+        <v>474.1674</v>
       </c>
       <c r="M5" s="64">
         <f t="shared" ref="M5:M34" si="2">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), ((E5*D5)+L5), "")</f>
-        <v>3639.4124</v>
+        <v>3755.2674</v>
       </c>
       <c r="N5" s="65">
         <f t="shared" ref="N5:N34" si="3">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), D5, "")</f>
@@ -29522,15 +29522,15 @@
       </c>
       <c r="O5" s="63">
         <f t="shared" ref="O5:O12" si="4">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), P5/sum(F5:I5), "")</f>
-        <v>0.1084408423</v>
+        <v>0.1435035803</v>
       </c>
       <c r="P5" s="64">
         <f>IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), (1-Index!$F$2*2)*((J5*D5)-(E5*D5)), "")</f>
-        <v>358.3124</v>
+        <v>474.1674</v>
       </c>
       <c r="Q5" s="64">
         <f t="shared" ref="Q5:Q34" si="5">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), ((E5*D5)+P5), "")</f>
-        <v>3639.4124</v>
+        <v>3755.2674</v>
       </c>
       <c r="R5" s="64">
         <f t="shared" ref="R5:R34" si="6">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV", NOW()-A5 &lt; 365), D5, "")</f>
@@ -29597,19 +29597,19 @@
       </c>
       <c r="J6" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K6" s="63">
         <f t="shared" si="1"/>
-        <v>0.1866394384</v>
+        <v>0.2242232156</v>
       </c>
       <c r="L6" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>1150.662</v>
+        <v>1382.372</v>
       </c>
       <c r="M6" s="64">
         <f t="shared" si="2"/>
-        <v>7272.662</v>
+        <v>7504.372</v>
       </c>
       <c r="N6" s="65">
         <f t="shared" si="3"/>
@@ -29617,15 +29617,15 @@
       </c>
       <c r="O6" s="63">
         <f t="shared" si="4"/>
-        <v>0.1866394384</v>
+        <v>0.2242232156</v>
       </c>
       <c r="P6" s="64">
         <f>IF(AND( C6="Buy", ISBLANK(W6), B6&lt;&gt;"DIV", NOW()-A6 &lt; 365), (1-Index!$F$2*2)*((J6*D6)-(E6*D6)), "")</f>
-        <v>1150.662</v>
+        <v>1382.372</v>
       </c>
       <c r="Q6" s="64">
         <f t="shared" si="5"/>
-        <v>7272.662</v>
+        <v>7504.372</v>
       </c>
       <c r="R6" s="64">
         <f t="shared" si="6"/>
@@ -29692,19 +29692,19 @@
       </c>
       <c r="J7" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K7" s="63">
         <f t="shared" si="1"/>
-        <v>0.1200997198</v>
+        <v>0.155538487</v>
       </c>
       <c r="L7" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>785.2504</v>
+        <v>1016.9604</v>
       </c>
       <c r="M7" s="64">
         <f t="shared" si="2"/>
-        <v>7277.8504</v>
+        <v>7509.5604</v>
       </c>
       <c r="N7" s="65">
         <f t="shared" si="3"/>
@@ -29712,15 +29712,15 @@
       </c>
       <c r="O7" s="63">
         <f t="shared" si="4"/>
-        <v>0.1200997198</v>
+        <v>0.155538487</v>
       </c>
       <c r="P7" s="64">
         <f>IF(AND( C7="Buy", ISBLANK(W7), B7&lt;&gt;"DIV", NOW()-A7 &lt; 365), (1-Index!$F$2*2)*((J7*D7)-(E7*D7)), "")</f>
-        <v>785.2504</v>
+        <v>1016.9604</v>
       </c>
       <c r="Q7" s="64">
         <f t="shared" si="5"/>
-        <v>7277.8504</v>
+        <v>7509.5604</v>
       </c>
       <c r="R7" s="64">
         <f t="shared" si="6"/>
@@ -29787,7 +29787,7 @@
       </c>
       <c r="J8" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K8" s="63" t="str">
         <f t="shared" si="1"/>
@@ -29882,7 +29882,7 @@
       </c>
       <c r="J9" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K9" s="63" t="str">
         <f t="shared" si="1"/>
@@ -29977,7 +29977,7 @@
       </c>
       <c r="J10" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K10" s="63" t="str">
         <f t="shared" si="1"/>
@@ -30072,7 +30072,7 @@
       </c>
       <c r="J11" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K11" s="63" t="str">
         <f t="shared" si="1"/>
@@ -30167,7 +30167,7 @@
       </c>
       <c r="J12" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K12" s="63" t="str">
         <f t="shared" si="1"/>
@@ -30264,7 +30264,7 @@
       </c>
       <c r="J13" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K13" s="67"/>
       <c r="L13" s="67" t="str">
@@ -30365,7 +30365,7 @@
       </c>
       <c r="J14" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K14" s="67"/>
       <c r="L14" s="67" t="str">
@@ -30466,7 +30466,7 @@
       </c>
       <c r="J15" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K15" s="67"/>
       <c r="L15" s="67" t="str">
@@ -30567,7 +30567,7 @@
       </c>
       <c r="J16" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K16" s="67"/>
       <c r="L16" s="67" t="str">
@@ -30668,7 +30668,7 @@
       </c>
       <c r="J17" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K17" s="67"/>
       <c r="L17" s="67" t="str">
@@ -30756,7 +30756,7 @@
       </c>
       <c r="J18" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K18" s="67"/>
       <c r="L18" s="67" t="str">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="J19" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K19" s="67"/>
       <c r="L19" s="67" t="str">
@@ -30958,7 +30958,7 @@
       </c>
       <c r="J20" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K20" s="67"/>
       <c r="L20" s="67" t="str">
@@ -31059,7 +31059,7 @@
       </c>
       <c r="J21" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K21" s="67"/>
       <c r="L21" s="67" t="str">
@@ -31160,7 +31160,7 @@
       </c>
       <c r="J22" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K22" s="67"/>
       <c r="L22" s="67" t="str">
@@ -31261,7 +31261,7 @@
       </c>
       <c r="J23" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K23" s="67"/>
       <c r="L23" s="67" t="str">
@@ -31362,7 +31362,7 @@
       </c>
       <c r="J24" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K24" s="67"/>
       <c r="L24" s="67" t="str">
@@ -31450,7 +31450,7 @@
       </c>
       <c r="J25" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K25" s="67"/>
       <c r="L25" s="67" t="str">
@@ -31551,7 +31551,7 @@
       </c>
       <c r="J26" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K26" s="67"/>
       <c r="L26" s="67" t="str">
@@ -31652,7 +31652,7 @@
       </c>
       <c r="J27" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K27" s="67"/>
       <c r="L27" s="67" t="str">
@@ -31753,7 +31753,7 @@
       </c>
       <c r="J28" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K28" s="67"/>
       <c r="L28" s="67" t="str">
@@ -31854,7 +31854,7 @@
       </c>
       <c r="J29" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K29" s="67"/>
       <c r="L29" s="67" t="str">
@@ -31955,7 +31955,7 @@
       </c>
       <c r="J30" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K30" s="67"/>
       <c r="L30" s="67" t="str">
@@ -32056,7 +32056,7 @@
       </c>
       <c r="J31" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K31" s="67"/>
       <c r="L31" s="67" t="str">
@@ -32157,7 +32157,7 @@
       </c>
       <c r="J32" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K32" s="67"/>
       <c r="L32" s="67" t="str">
@@ -32258,7 +32258,7 @@
       </c>
       <c r="J33" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K33" s="67"/>
       <c r="L33" s="67" t="str">
@@ -32359,7 +32359,7 @@
       </c>
       <c r="J34" s="62">
         <f>Index!$C$2</f>
-        <v>364.45</v>
+        <v>376.2</v>
       </c>
       <c r="K34" s="67"/>
       <c r="L34" s="67" t="str">
@@ -48064,7 +48064,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AD$34"/>
   <customSheetViews>
-    <customSheetView guid="{A3B8195B-EBEE-4F31-9CC7-6F41C7A6DEBD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A5A1BDFA-5980-4846-96B0-32D9D91CB5B6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AO$89"/>
     </customSheetView>
   </customSheetViews>
